--- a/biology/Zoologie/Cupiennius_getazi/Cupiennius_getazi.xlsx
+++ b/biology/Zoologie/Cupiennius_getazi/Cupiennius_getazi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cupiennius getazi est une espèce d'araignées aranéomorphes de la famille des Trechaleidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cupiennius getazi est une espèce d'araignées aranéomorphes de la famille des Trechaleidae.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre au Costa Rica et au Panama[1].
-Elle a été introduite en Grande-Bretagne, en Belgique et en Allemagne[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au Costa Rica et au Panama.
+Elle a été introduite en Grande-Bretagne, en Belgique et en Allemagne.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle holotype mesure 25 mm[2].
-Le mâle décrit par Lachmuth, Grasshoff et Barth en 1985 mesure 21 mm et la femelle 27 mm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle holotype mesure 25 mm.
+Le mâle décrit par Lachmuth, Grasshoff et Barth en 1985 mesure 21 mm et la femelle 27 mm.
 </t>
         </is>
       </c>
@@ -575,10 +591,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a été décrite par Simon en 1891.
-Cupiennius griseus[4] a été placée en synonymie par Lachmuth, Grasshoff et Barth en 1985[3].
+Cupiennius griseus a été placée en synonymie par Lachmuth, Grasshoff et Barth en 1985.
 </t>
         </is>
       </c>
@@ -607,9 +625,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'André Gétaz[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'André Gétaz.
 </t>
         </is>
       </c>
@@ -638,7 +658,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Simon, 1891 : « Descriptions de quelques arachnides du Costa Rica communiqués par M. A. Getaz (de Genève). » Bulletin de la Société Zoologique de France, vol. 16, p. 109-112 (texte intégral).</t>
         </is>
